--- a/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_progressive_rectification.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_progressive_rectification.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed login attempts to SSH servers from a specific IP address ([IP_ADDRESS_32a64212fc]). These attempts used invalid usernames and brute-force password guessing strategies. This strongly indicates an intrusion attempt, as the actor is actively trying to gain unauthorized access to the system.</t>
+          <t>The incident description details multiple failed login attempts from a specific IP address ([IP_ADDRESS_32a64212fc]) to various user accounts (test5, rundeck, jimmy, and root) on a server. These attempts include unsuccessful password authentication and disconnections. This strongly suggests an intrusion attempt, as the attacker is trying to gain unauthorized access to the system by brute-forcing credentials.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -616,14 +616,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to an SSH server. These attempts used invalid usernames and resulted in authentication failures. This strongly suggests an intrusion attempt, likely a brute-force attack where the attacker is trying various usernames and passwords to gain unauthorized access.</t>
+          <t>The incident description details multiple failed SSH login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) using various usernames. These unsuccessful attempts strongly suggest an intrusion attempt, likely a brute-force attack against the system's SSH service.  The log entries clearly show authentication failures and disconnections, indicating that the attacker was trying different credentials to gain unauthorized access.</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -688,7 +688,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The incident description details an email received by CERT.br reporting potential abuse from a specific IP address ([IP_ADDRESS_984299dc8f]).  The original message includes log lines indicating failed attempts to send emails, suggesting a possible brute force or scanning activity. However, the logs don't confirm a successful intrusion or compromise of any systems. This aligns with CAT12: Intrusion Attempt, as it describes unconfirmed attacks and potential security probing.</t>
+          <t>The incident description details an email received by CERT.br reporting potential abuse from a specific IP address ([IP_ADDRESS_984299dc8f]).  The original message, sent by Fail2Ban, indicates that the sender's email was rejected due to triggering spam filters. This suggests an attempt to send unsolicited emails (possibly spam) which was blocked by the recipient's server. While the exact nature of the abuse is unclear, the log lines show connection attempts and filtering actions, indicating a potential intrusion attempt rather than confirmed malicious activity.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -767,14 +767,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to various SSH accounts (cjl, kafka, cyr, sat, extrim, user1). These attempts used invalid usernames and resulted in authentication failures. This strongly suggests an intrusion attempt, likely a brute-force attack against the SSH server.</t>
+          <t>The incident description details multiple failed login attempts from a single IP address ([IP_ADDRESS_b29a075d57]) to various SSH accounts (cjl, kafka, cyr, sat, extrim, user1). These unsuccessful attempts strongly suggest an intrusion attempt, likely a brute-force attack against the SSH server.  The log entries clearly show authentication failures and disconnections, indicating that the attacker was trying different usernames and passwords.</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -855,7 +855,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The incident description clearly states that one or more computers in the target network have been potentially infected with the SystemBC malware. This malware is categorized as malicious code, fitting the definition of a Malware incident (CAT2).</t>
+          <t>The incident description clearly states that one or more computers in the target network have been potentially infected with the malware SystemBC. This directly falls under the category of Malware infections as defined by NIST.  The email details the malware's capabilities and recommends actions to mitigate the infection, further solidifying this classification.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident description clearly states that one or more computers in the victim's network have been potentially infected with the malware SystemBC. This directly falls under the category of "Malware" as defined by NIST.  The email details the malware's capabilities (backdoor, lateral movement) and its association with known ransomware attacks.</t>
+          <t>The incident description clearly states that one or more computers in the target network have been potentially infected with the malware SystemBC. This directly falls under the category of "Malware" as defined by NIST.  The email details the malware's capabilities and potential impact, further solidifying this classification.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident description details a series of failed email attempts from an IP address ([IP_ADDRESS_984299dc8f]) to a specific recipient.  The logs show connection attempts, rejections due to the sender's address being flagged as "mega.kg" (likely a known spam or malicious domain), and ultimately a disconnection. This strongly suggests an intrusion attempt, where the sender is likely attempting to gain unauthorized access or send unsolicited messages.</t>
+          <t>The incident description details a series of email logs indicating an attempted connection from an IP address ([IP_ADDRESS_984299dc8f]) to a mail server.  The connection was rejected due to the sender's address being flagged as potentially malicious ("mega.kg"). This strongly suggests an intrusion attempt, where the sender might be attempting to gain unauthorized access or send spam.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The incident description details a notification from CERT.br forwarding an email reporting potential abuse originating from an IP address ([IP_ADDRESS_984299dc8f]).  The original message includes log lines indicating blocked attempts to send emails, suggesting a possible intrusion attempt. However, the logs don't provide conclusive evidence of successful compromise or malicious activity. The situation is still under investigation by the recipient organization.</t>
+          <t>The incident description details a notification from CERT.br regarding an email flagged as potential abuse originating from IP address [IP_ADDRESS_984299dc8f].  The original message includes log lines indicating attempts to send emails that were rejected by the recipient's mail server due to triggering spam filters. This points towards a possible intrusion attempt, where the attacker might be trying to use the compromised system for sending unsolicited emails or engaging in other malicious activities.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The email clearly states that the target machine was likely compromised and is being used for malicious activities, possibly due to a brute-force attack on SSH. This aligns with the definition of CAT1: Account Compromise, which involves unauthorized access to user or administrator accounts through methods like brute force attacks.</t>
+          <t>The incident description clearly indicates a potential Account Compromise.  The email from CERT.br states that logs show "atividades maliciosas" (malicious activities) originating from the target IP address, suggesting unauthorized access to the system.</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident description clearly states that an IP address under the target's control was used in a DDoS (Distributed Denial of Service) attack.  DDoS attacks are specifically designed to make systems unavailable by overwhelming them with traffic, which aligns perfectly with the definition of a CAT3 incident.</t>
+          <t>The incident description clearly states that an IP address under the target's control was used in a DDoS attack. This involves overwhelming a system with traffic, making it unavailable to legitimate users.  The email details the attack size (Nx10Gbps), the impact on clients (packet loss and requiring emergency mitigation), and the short duration typical of these attacks. All these elements point directly to a Denial of Service Attack.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident description clearly describes a Denial of Service (DoS) attack.  The email states that an IP address under the recipient's control was used in a coordinated DDoS botnet to attack one of their customers, causing significant packet loss and requiring emergency mitigation measures. This directly aligns with the definition of a DoS attack as outlined in the NIST categories.</t>
+          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS (Distributed Denial of Service) attack.  DDoS attacks are specifically designed to make systems unavailable by overwhelming them with traffic, which aligns perfectly with the definition of a CAT3 incident.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS (Distributed Denial of Service) attack.  DDoS attacks are designed to make systems unavailable by overwhelming them with traffic, which aligns directly with the definition of a CAT3 incident.</t>
+          <t>The incident description clearly states that an IP address under the control of the recipient was used in a DDoS attack. This involves overwhelming a target system with traffic, making it unavailable to legitimate users.  The description mentions "Nx10Gbps" attack size and "significant packet loss for our clients due to external link saturation," which are hallmarks of a Denial of Service (DoS) or Distributed Denial of Service (DDoS) attack.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This incident involves the exploitation of a known vulnerability (CVE-2022-37042) in Zimbra Collaboration Suite. The email explicitly states that attackers could use this vulnerability to upload files, execute arbitrary code, and gain unauthorized access to user accounts. This aligns with the definition of CAT5: Vulnerability Exploitation – using technical flaws for attacks.</t>
+          <t>This incident involves the exploitation of a known vulnerability (CVE-2022-37042) in Zimbra Collaboration Suite. The email explicitly states that attackers can leverage this vulnerability to upload files, execute arbitrary code, and gain unauthorized access to user accounts. This aligns directly with the definition of Vulnerability Exploitation (CAT5).</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident describes exposed BGP servers that could be vulnerable to Denial of Service (DoS) attacks.  The CERT.br notification explicitly states that this exposure "can lead to attacks of denial of service on this port with the risk of affecting the availability of the BGP service of your Autonomous System." This directly aligns with a CAT3 incident, which involves making systems unavailable through various attack methods like volumetric DoS or DDoS.</t>
+          <t>The incident describes exposed BGP services on network devices. This exposure could lead to a Denial of Service (DoS) attack targeting the BGP service, disrupting network connectivity and availability.  The alert specifically mentions the risk of DoS attacks against the BGP service, making CAT3 (Denial of Service Attack) the most appropriate classification.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The incident description details multiple blocked connection attempts from a specific IP address ([IP_ADDRESS_26a432a33e]) to various ports on different servers.  These connections are flagged as potential "portscans/malware/intrusion attempts" and are explicitly stated to be logged and processed only after completing the three-way handshake, indicating an attempt at establishing a connection rather than just probing for open ports. While the exact nature of the attack is not confirmed, the blocked connections and the language used ("unwanted activities," "toxic," "blacklisted on sight") strongly suggest an intrusion attempt.</t>
+          <t>The incident description details multiple blocked connection attempts from a single IP address ([IP_ADDRESS_26a432a33e]) to various ports on different servers. These connections are flagged as potential "probe/scan/virus/trojan" activity, indicating an intrusion attempt.  The logs show blocked SYN packets and mentions of attempted database queries, suggesting a scan for vulnerabilities or active exploitation attempts. While the exact nature of the attack is not confirmed, the evidence points towards an unconfirmed intrusion attempt.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident describes a notification about servers with the SSDP/UPnP service enabled, which can be exploited for DDoS attacks.  The email explicitly states that these IPs could be involved in attacks that consume resources and impact third parties. This aligns with the definition of a Denial of Service Attack (CAT3) as it highlights the potential for making systems unavailable due to malicious exploitation of a network service.</t>
+          <t>The incident describes a notification about servers with the SSDP/uPnP service enabled, which can be exploited for DDoS attacks.  The email explicitly states that these IPs could be involved in attacks consuming resources and impacting third parties. This aligns directly with a Denial of Service Attack (DoS or DDoS) where systems are made unavailable through amplified traffic or resource exhaustion.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The incident describes a server misconfiguration that leaves systems vulnerable to Denial of Service (DoS) attacks.  The email explicitly states that the malconfigured NTP servers can be exploited to participate in DDoS attacks, consuming network resources and impacting third parties. This aligns directly with the definition of a DoS attack as outlined in NIST's CAT3 category.</t>
+          <t>The incident describes a potential vulnerability in NTP servers that could be exploited to launch Denial of Service (DoS) attacks.  The CERT.br notification highlights that these misconfigured servers can be abused to consume network resources, impacting other systems and potentially causing service disruptions. This aligns directly with the definition of a DoS attack under CAT3.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a phishing scam.  An email was sent impersonating a legitimate source ("Conta Vivo") with the aim of tricking recipients into revealing sensitive information (likely credentials). This aligns perfectly with the definition of social engineering, specifically phishing, as outlined in NIST Category 7.</t>
+          <t>The incident description clearly indicates a phishing scam.  An email was sent impersonating a legitimate service ("Conta Vivo") to trick recipients into revealing sensitive information (likely credentials). This aligns with the definition of social engineering, specifically phishing, as it uses deception to gain access or data.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident description details a phishing email campaign originating from an IP address identified as potentially involved in fraudulent activities.  The email attempts to extort users, which is a classic example of social engineering. Netcraft, a security company, has contacted the organization about this issue, highlighting the malicious intent behind the emails and urging them to take immediate action.</t>
+          <t>The incident description details a phishing email campaign originating from an IP address identified as potentially involved in fraudulent activities.  The email aims to deceive users into taking actions that could compromise their security, such as clicking on malicious links or providing sensitive information. This aligns with the definition of Social Engineering (CAT7) which involves using deception to manipulate individuals into divulging confidential information or performing actions that benefit the attacker.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The incident description clearly states that the website's content was altered. This indicates an unauthorized modification of the website, which falls under the category of "Unauthorized Modification" (CAT9).  The email from CERT.br explicitly mentions "Desfiguracao de website" (Website Defacement) further confirming this classification.</t>
+          <t>The incident description clearly states that the website's content was altered. This indicates an "Unauthorized Modification" of the website, which aligns with NIST Category CAT9.  The email from CERT.br explicitly mentions "Desfiguracao de website" (Website Defacement) further confirming this categorization.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident description clearly states that a website was defaced, meaning its content was altered without authorization. This directly falls under Unauthorized Modification (CAT9) as it involves improper changes made to a system (the website) and its data (the website content).</t>
+          <t>The incident description clearly states that a website was "desfiguracao de website" which translates to "website defaced". This means the content of the website was altered without authorization,  falling under the category of Unauthorized Modification (CAT9).</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident description clearly states that the website content was "altered". This indicates an unauthorized modification of data on the target system, which aligns with the definition of Category 9: Unauthorized Modification.  The specific example provided in the email further supports this classification as it describes the altered content displayed on the website.</t>
+          <t>The incident description clearly states that the website's content was altered. This indicates an unauthorized modification of the website, which falls under the definition of "Unauthorized Modification" (CAT9).  The email from CERT.br explicitly mentions "Desfiguracao de website" (Website Defacement) further confirming this categorization.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident description clearly states that the website's content was altered, with a message from the attackers displayed. This indicates an "Unauthorized Modification" of the website data, fitting the definition of CAT9.  The presence of the defacement message and the mention of the altered content being accessible point directly to this category.</t>
+          <t>The incident description clearly states that the website content was altered, with a defacing message and signature from the attackers. This directly falls under Unauthorized Modification (CAT9) as it involves improper changes to the website's data without authorization.</t>
         </is>
       </c>
       <c r="E25" t="n">
